--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="248">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,481 +22,742 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>159920</t>
+  </si>
+  <si>
     <t>002121</t>
   </si>
   <si>
+    <t>513550</t>
+  </si>
+  <si>
+    <t>009896</t>
+  </si>
+  <si>
+    <t>501206</t>
+  </si>
+  <si>
+    <t>008283</t>
+  </si>
+  <si>
+    <t>010041</t>
+  </si>
+  <si>
+    <t>513660</t>
+  </si>
+  <si>
     <t>010024</t>
   </si>
   <si>
+    <t>202801</t>
+  </si>
+  <si>
+    <t>009897</t>
+  </si>
+  <si>
+    <t>513900</t>
+  </si>
+  <si>
+    <t>007354</t>
+  </si>
+  <si>
+    <t>513600</t>
+  </si>
+  <si>
+    <t>008418</t>
+  </si>
+  <si>
+    <t>008531</t>
+  </si>
+  <si>
+    <t>164705</t>
+  </si>
+  <si>
+    <t>010042</t>
+  </si>
+  <si>
+    <t>006578</t>
+  </si>
+  <si>
+    <t>008419</t>
+  </si>
+  <si>
+    <t>513990</t>
+  </si>
+  <si>
+    <t>008532</t>
+  </si>
+  <si>
+    <t>006579</t>
+  </si>
+  <si>
+    <t>006652</t>
+  </si>
+  <si>
+    <t>160924</t>
+  </si>
+  <si>
+    <t>005472</t>
+  </si>
+  <si>
+    <t>006781</t>
+  </si>
+  <si>
+    <t>008861</t>
+  </si>
+  <si>
+    <t>159978</t>
+  </si>
+  <si>
+    <t>005255</t>
+  </si>
+  <si>
+    <t>160925</t>
+  </si>
+  <si>
+    <t>162416</t>
+  </si>
+  <si>
+    <t>159809</t>
+  </si>
+  <si>
+    <t>501309</t>
+  </si>
+  <si>
+    <t>007357</t>
+  </si>
+  <si>
     <t>004098</t>
   </si>
   <si>
-    <t>513600</t>
+    <t>005707</t>
+  </si>
+  <si>
+    <t>006106</t>
+  </si>
+  <si>
+    <t>005473</t>
+  </si>
+  <si>
+    <t>010789</t>
+  </si>
+  <si>
+    <t>010093</t>
+  </si>
+  <si>
+    <t>167302</t>
   </si>
   <si>
     <t>166402</t>
   </si>
   <si>
-    <t>008418</t>
-  </si>
-  <si>
-    <t>008419</t>
-  </si>
-  <si>
-    <t>008861</t>
-  </si>
-  <si>
-    <t>010093</t>
-  </si>
-  <si>
-    <t>005255</t>
-  </si>
-  <si>
-    <t>005472</t>
-  </si>
-  <si>
-    <t>005473</t>
-  </si>
-  <si>
-    <t>164705</t>
-  </si>
-  <si>
-    <t>010789</t>
-  </si>
-  <si>
-    <t>202801</t>
-  </si>
-  <si>
-    <t>006106</t>
-  </si>
-  <si>
-    <t>009896</t>
-  </si>
-  <si>
-    <t>009897</t>
-  </si>
-  <si>
-    <t>010041</t>
-  </si>
-  <si>
-    <t>010042</t>
-  </si>
-  <si>
-    <t>006578</t>
-  </si>
-  <si>
-    <t>006579</t>
-  </si>
-  <si>
-    <t>006652</t>
-  </si>
-  <si>
     <t>011124</t>
   </si>
   <si>
-    <t>006781</t>
-  </si>
-  <si>
-    <t>501206</t>
-  </si>
-  <si>
-    <t>501309</t>
-  </si>
-  <si>
-    <t>007354</t>
-  </si>
-  <si>
-    <t>007357</t>
-  </si>
-  <si>
-    <t>513550</t>
-  </si>
-  <si>
-    <t>513660</t>
-  </si>
-  <si>
-    <t>513900</t>
-  </si>
-  <si>
-    <t>513990</t>
-  </si>
-  <si>
-    <t>159809</t>
-  </si>
-  <si>
-    <t>159920</t>
-  </si>
-  <si>
-    <t>159978</t>
-  </si>
-  <si>
-    <t>160924</t>
-  </si>
-  <si>
-    <t>160925</t>
-  </si>
-  <si>
     <t>008973</t>
   </si>
   <si>
-    <t>167302</t>
-  </si>
-  <si>
-    <t>005707</t>
-  </si>
-  <si>
-    <t>008283</t>
-  </si>
-  <si>
-    <t>008531</t>
-  </si>
-  <si>
-    <t>008532</t>
-  </si>
-  <si>
-    <t>162416</t>
+    <t>华夏恒生ETF(QDII)</t>
   </si>
   <si>
     <t>广发沪港深新起点股票A</t>
   </si>
   <si>
+    <t>华泰柏瑞中证港股通50ETF</t>
+  </si>
+  <si>
+    <t>广发港股通成长精选股票A</t>
+  </si>
+  <si>
+    <t>汇添富创新未来18个月封闭运作混合A</t>
+  </si>
+  <si>
+    <t>易方达金融行业股票</t>
+  </si>
+  <si>
+    <t>嘉实港股优势混合A</t>
+  </si>
+  <si>
+    <t>华夏沪港通恒生ETF</t>
+  </si>
+  <si>
     <t>广发沪港深新起点股票C</t>
   </si>
   <si>
+    <t>南方全球精选配置(QDII-FOF)</t>
+  </si>
+  <si>
+    <t>广发港股通成长精选股票C</t>
+  </si>
+  <si>
+    <t>华安CES港股通精选100ETF</t>
+  </si>
+  <si>
+    <t>创金合信港股通量化股票A</t>
+  </si>
+  <si>
+    <t>南方恒生ETF</t>
+  </si>
+  <si>
+    <t>惠升惠泽灵活配置混合A</t>
+  </si>
+  <si>
+    <t>惠升惠民混合A</t>
+  </si>
+  <si>
+    <t>汇添富恒生指数（QDII-LOF）A</t>
+  </si>
+  <si>
+    <t>嘉实港股优势混合C</t>
+  </si>
+  <si>
+    <t>泰康中证港股通非银行金融主题指数A</t>
+  </si>
+  <si>
+    <t>惠升惠泽灵活配置混合C</t>
+  </si>
+  <si>
+    <t>招商上证港股通ETF</t>
+  </si>
+  <si>
+    <t>惠升惠民混合C</t>
+  </si>
+  <si>
+    <t>泰康中证港股通非银行金融主题指数C</t>
+  </si>
+  <si>
+    <t>富国金融地产行业混合A</t>
+  </si>
+  <si>
+    <t>大成恒生指数（QDII-LOF）</t>
+  </si>
+  <si>
+    <t>富国价值驱动灵活配置混合A</t>
+  </si>
+  <si>
+    <t>汇丰晋信港股通精选股票</t>
+  </si>
+  <si>
+    <t>西部利得港股通新机遇灵活配置混合A</t>
+  </si>
+  <si>
+    <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+  </si>
+  <si>
+    <t>浦银安盛港股通量化优选灵活配置混合</t>
+  </si>
+  <si>
+    <t>大成中华沪深港300指数（LOF）A</t>
+  </si>
+  <si>
+    <t>华宝港股通恒生香港35指数(LOF)</t>
+  </si>
+  <si>
+    <t>博时恒生沪深港通大湾区综合ETF</t>
+  </si>
+  <si>
+    <t>国泰恒生港股通指数（LOF）</t>
+  </si>
+  <si>
+    <t>创金合信港股通量化股票C</t>
+  </si>
+  <si>
     <t>前海开源港股通股息率50强股票</t>
   </si>
   <si>
-    <t>南方恒生ETF</t>
+    <t>富国港股通量化精选股票</t>
+  </si>
+  <si>
+    <t>景顺长城量化港股通股票</t>
+  </si>
+  <si>
+    <t>富国价值驱动灵活配置混合C</t>
+  </si>
+  <si>
+    <t>汇添富恒生指数（QDII-LOF）C</t>
+  </si>
+  <si>
+    <t>西部利得港股通新机遇灵活配置混合C</t>
+  </si>
+  <si>
+    <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
   </si>
   <si>
     <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
   </si>
   <si>
-    <t>惠升惠泽灵活配置混合A</t>
-  </si>
-  <si>
-    <t>惠升惠泽灵活配置混合C</t>
-  </si>
-  <si>
-    <t>西部利得港股通新机遇灵活配置混合A</t>
-  </si>
-  <si>
-    <t>西部利得港股通新机遇灵活配置混合C</t>
-  </si>
-  <si>
-    <t>浦银安盛港股通量化优选灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国价值驱动灵活配置混合A</t>
-  </si>
-  <si>
-    <t>富国价值驱动灵活配置混合C</t>
-  </si>
-  <si>
-    <t>汇添富恒生指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>汇添富恒生指数（QDII-LOF）C</t>
-  </si>
-  <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
-  </si>
-  <si>
-    <t>景顺长城量化港股通股票</t>
-  </si>
-  <si>
-    <t>广发港股通成长精选股票A</t>
-  </si>
-  <si>
-    <t>广发港股通成长精选股票C</t>
-  </si>
-  <si>
-    <t>嘉实港股优势混合A</t>
-  </si>
-  <si>
-    <t>嘉实港股优势混合C</t>
-  </si>
-  <si>
-    <t>泰康中证港股通非银行金融主题指数A</t>
-  </si>
-  <si>
-    <t>泰康中证港股通非银行金融主题指数C</t>
-  </si>
-  <si>
-    <t>富国金融地产行业混合A</t>
-  </si>
-  <si>
     <t>富国金融地产行业混合C</t>
   </si>
   <si>
-    <t>汇丰晋信港股通精选股票</t>
-  </si>
-  <si>
-    <t>汇添富创新未来18个月封闭运作混合A</t>
-  </si>
-  <si>
-    <t>国泰恒生港股通指数（LOF）</t>
-  </si>
-  <si>
-    <t>创金合信港股通量化股票A</t>
-  </si>
-  <si>
-    <t>创金合信港股通量化股票C</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证港股通50ETF</t>
-  </si>
-  <si>
-    <t>华夏沪港通恒生ETF</t>
-  </si>
-  <si>
-    <t>华安CES港股通精选100ETF</t>
-  </si>
-  <si>
-    <t>招商上证港股通ETF</t>
-  </si>
-  <si>
-    <t>博时恒生沪深港通大湾区综合ETF</t>
-  </si>
-  <si>
-    <t>华夏恒生ETF(QDII)</t>
-  </si>
-  <si>
-    <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
-  </si>
-  <si>
-    <t>大成恒生指数（QDII-LOF）</t>
-  </si>
-  <si>
-    <t>大成中华沪深港300指数（LOF）A</t>
-  </si>
-  <si>
     <t>大成中华沪深港300指数(LOF)C</t>
   </si>
   <si>
-    <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
-  </si>
-  <si>
-    <t>富国港股通量化精选股票</t>
-  </si>
-  <si>
-    <t>易方达金融行业股票</t>
-  </si>
-  <si>
-    <t>惠升惠民混合A</t>
-  </si>
-  <si>
-    <t>惠升惠民混合C</t>
-  </si>
-  <si>
-    <t>华宝港股通恒生香港35指数(LOF)</t>
+    <t>126.61</t>
+  </si>
+  <si>
+    <t>86.95</t>
+  </si>
+  <si>
+    <t>67.94</t>
+  </si>
+  <si>
+    <t>59.19</t>
+  </si>
+  <si>
+    <t>80.20</t>
+  </si>
+  <si>
+    <t>25.26</t>
+  </si>
+  <si>
+    <t>76.49</t>
+  </si>
+  <si>
+    <t>17.48</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>26.61</t>
+  </si>
+  <si>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>11.32</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>9.39</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>93.01</t>
   </si>
   <si>
     <t>90.91</t>
   </si>
   <si>
+    <t>98.02</t>
+  </si>
+  <si>
+    <t>90.68</t>
+  </si>
+  <si>
+    <t>85.16</t>
+  </si>
+  <si>
+    <t>94.79</t>
+  </si>
+  <si>
+    <t>68.09</t>
+  </si>
+  <si>
+    <t>97.04</t>
+  </si>
+  <si>
+    <t>30.74</t>
+  </si>
+  <si>
+    <t>96.06</t>
+  </si>
+  <si>
+    <t>88.95</t>
+  </si>
+  <si>
+    <t>97.13</t>
+  </si>
+  <si>
+    <t>69.41</t>
+  </si>
+  <si>
+    <t>72.99</t>
+  </si>
+  <si>
+    <t>93.05</t>
+  </si>
+  <si>
+    <t>94.31</t>
+  </si>
+  <si>
+    <t>97.24</t>
+  </si>
+  <si>
+    <t>90.79</t>
+  </si>
+  <si>
+    <t>93.91</t>
+  </si>
+  <si>
+    <t>89.22</t>
+  </si>
+  <si>
+    <t>92.52</t>
+  </si>
+  <si>
+    <t>91.65</t>
+  </si>
+  <si>
+    <t>95.88</t>
+  </si>
+  <si>
+    <t>89.61</t>
+  </si>
+  <si>
+    <t>93.77</t>
+  </si>
+  <si>
+    <t>94.70</t>
+  </si>
+  <si>
+    <t>98.34</t>
+  </si>
+  <si>
+    <t>93.07</t>
+  </si>
+  <si>
     <t>89.07</t>
   </si>
   <si>
-    <t>97.13</t>
+    <t>89.15</t>
+  </si>
+  <si>
+    <t>86.66</t>
+  </si>
+  <si>
+    <t>94.02</t>
   </si>
   <si>
     <t>93.61</t>
   </si>
   <si>
-    <t>69.41</t>
-  </si>
-  <si>
-    <t>91.65</t>
-  </si>
-  <si>
-    <t>89.61</t>
-  </si>
-  <si>
-    <t>89.22</t>
-  </si>
-  <si>
-    <t>93.05</t>
-  </si>
-  <si>
-    <t>30.74</t>
-  </si>
-  <si>
-    <t>86.66</t>
-  </si>
-  <si>
-    <t>90.68</t>
-  </si>
-  <si>
-    <t>68.09</t>
-  </si>
-  <si>
-    <t>94.31</t>
-  </si>
-  <si>
-    <t>90.79</t>
-  </si>
-  <si>
-    <t>92.52</t>
-  </si>
-  <si>
-    <t>85.16</t>
-  </si>
-  <si>
-    <t>93.07</t>
-  </si>
-  <si>
-    <t>88.95</t>
-  </si>
-  <si>
-    <t>98.02</t>
-  </si>
-  <si>
-    <t>97.04</t>
-  </si>
-  <si>
-    <t>96.06</t>
-  </si>
-  <si>
-    <t>97.24</t>
-  </si>
-  <si>
-    <t>98.34</t>
-  </si>
-  <si>
-    <t>93.01</t>
-  </si>
-  <si>
-    <t>95.88</t>
-  </si>
-  <si>
-    <t>93.91</t>
-  </si>
-  <si>
-    <t>93.77</t>
-  </si>
-  <si>
-    <t>94.02</t>
-  </si>
-  <si>
-    <t>89.15</t>
-  </si>
-  <si>
-    <t>94.79</t>
-  </si>
-  <si>
-    <t>72.99</t>
-  </si>
-  <si>
-    <t>94.70</t>
+    <t>8.82</t>
   </si>
   <si>
     <t>8.23</t>
   </si>
   <si>
+    <t>9.38</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>8.85</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>9.48</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>8.87</t>
+  </si>
+  <si>
+    <t>14.03</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>5.74</t>
+  </si>
+  <si>
     <t>3.83</t>
   </si>
   <si>
-    <t>9.48</t>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>7.67</t>
   </si>
   <si>
     <t>2.32</t>
   </si>
   <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>3.84</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>8.87</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>5.57</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>14.03</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>5.74</t>
-  </si>
-  <si>
-    <t>6.47</t>
-  </si>
-  <si>
-    <t>9.38</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>8.85</t>
-  </si>
-  <si>
-    <t>5.58</t>
-  </si>
-  <si>
-    <t>8.20</t>
-  </si>
-  <si>
-    <t>8.82</t>
-  </si>
-  <si>
-    <t>5.95</t>
-  </si>
-  <si>
-    <t>8.92</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>4.51</t>
-  </si>
-  <si>
-    <t>9.47</t>
-  </si>
-  <si>
-    <t>3.79</t>
-  </si>
-  <si>
-    <t>8.90</t>
+    <t>11.1670</t>
+  </si>
+  <si>
+    <t>7.1560</t>
+  </si>
+  <si>
+    <t>6.3728</t>
+  </si>
+  <si>
+    <t>3.2969</t>
+  </si>
+  <si>
+    <t>2.8070</t>
+  </si>
+  <si>
+    <t>2.3921</t>
+  </si>
+  <si>
+    <t>1.6828</t>
+  </si>
+  <si>
+    <t>1.6309</t>
+  </si>
+  <si>
+    <t>0.6247</t>
+  </si>
+  <si>
+    <t>0.5721</t>
+  </si>
+  <si>
+    <t>0.5453</t>
+  </si>
+  <si>
+    <t>0.4708</t>
+  </si>
+  <si>
+    <t>0.4400</t>
+  </si>
+  <si>
+    <t>0.3451</t>
+  </si>
+  <si>
+    <t>0.3317</t>
+  </si>
+  <si>
+    <t>0.2369</t>
+  </si>
+  <si>
+    <t>0.2120</t>
+  </si>
+  <si>
+    <t>0.2066</t>
+  </si>
+  <si>
+    <t>0.1585</t>
+  </si>
+  <si>
+    <t>0.1462</t>
+  </si>
+  <si>
+    <t>0.0904</t>
+  </si>
+  <si>
+    <t>0.0773</t>
+  </si>
+  <si>
+    <t>0.0772</t>
+  </si>
+  <si>
+    <t>0.0666</t>
+  </si>
+  <si>
+    <t>0.0633</t>
+  </si>
+  <si>
+    <t>0.0589</t>
+  </si>
+  <si>
+    <t>0.0379</t>
+  </si>
+  <si>
+    <t>0.0360</t>
+  </si>
+  <si>
+    <t>0.0327</t>
+  </si>
+  <si>
+    <t>0.0323</t>
+  </si>
+  <si>
+    <t>0.0305</t>
+  </si>
+  <si>
+    <t>0.0267</t>
+  </si>
+  <si>
+    <t>0.0262</t>
+  </si>
+  <si>
+    <t>0.0253</t>
+  </si>
+  <si>
+    <t>0.0207</t>
+  </si>
+  <si>
+    <t>0.0199</t>
+  </si>
+  <si>
+    <t>0.0162</t>
+  </si>
+  <si>
+    <t>0.0146</t>
+  </si>
+  <si>
+    <t>0.0099</t>
+  </si>
+  <si>
+    <t>0.0080</t>
+  </si>
+  <si>
+    <t>0.0069</t>
+  </si>
+  <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -854,13 +1115,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,905 +1137,1181 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14">
+        <v>148</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15">
+        <v>149</v>
+      </c>
+      <c r="F15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>152</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>163</v>
+      </c>
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36">
+        <v>148</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37">
+        <v>166</v>
+      </c>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39">
+        <v>168</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41">
+        <v>152</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="F46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4051,4 +4052,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4981</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7662</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5552,4 +5553,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5561,7 +5562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5572,17 +5573,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5592,14 +5613,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.39</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5608,14 +5651,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.26</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5624,13 +5689,1503 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517060</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>45</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>41.59</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7100,7 +7101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7111,17 +7112,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7131,14 +7152,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.26</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7147,14 +7190,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.39</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7163,14 +7228,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.26</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7179,13 +7266,1595 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7713</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>45</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>41.59</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8753,7 +8754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8764,17 +8765,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8784,14 +8805,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.8</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8800,14 +8843,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.26</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8816,14 +8881,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.39</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8832,14 +8919,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.26</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8848,13 +8957,1609 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7980</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8395</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>45</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>41.59</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>30.28</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>28.8</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>21.26</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>26.39</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>36.26</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>45</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>41.59</v>
       </c>
     </row>
@@ -583,6 +600,2036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1654</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>517780</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛中华交易服务沪深港300ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>517030</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦沪深港通大湾区综指（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2270,7 +4317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3922,7 +5969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5460,7 +7507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6960,7 +9007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8802,7 +10849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01299-友邦保险.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>23.94</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>30.28</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>21.26</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>26.39</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>36.26</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>45</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>41.59</v>
       </c>
     </row>
@@ -600,6 +617,2950 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4885</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2515</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0858</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013248</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>517030</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>方正富邦沪深港通大湾区综指（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013249</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2629,7 +5590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4317,7 +7278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5969,7 +8930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7507,7 +10468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9007,7 +11968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10849,7 +13810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
